--- a/medicine/Psychotrope/Guillaume_IV_de_Bavière/Guillaume_IV_de_Bavière.xlsx
+++ b/medicine/Psychotrope/Guillaume_IV_de_Bavière/Guillaume_IV_de_Bavière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillaume_IV_de_Bavi%C3%A8re</t>
+          <t>Guillaume_IV_de_Bavière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guillaume IV de Bavière, dit Guillaume le Constant (né le 13 novembre 1493 à Munich ; mort le 7 mars 1550 dans la même ville) est duc de Bavière de 1508 à 1550, et réunifie définitivement sous une même couronne la Bavière munichoise à la Bavière-Landshut. Il est enterré à la cathédrale Notre-Dame de Munich.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillaume_IV_de_Bavi%C3%A8re</t>
+          <t>Guillaume_IV_de_Bavière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du duc Albert IV le Sage et de Cunégonde d'Autriche, il exerce le pouvoir en 1511 après une période de régence.
 En 1514, son frère Louis X de Bavière-Landshut formule des réclamations à son encontre. Les Bavarois craignent un retour des hostilités de la guerre de succession de 1505, mais sous la pression de l'empereur, Guillaume accepte de partager le pouvoir : Louis administrera Landshut et Straubing depuis l'ancienne capitale de Landshut. À sa mort en 1545, Louis X lui lègue ses fiefs conformément au serment des Wittelsbach.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guillaume_IV_de_Bavi%C3%A8re</t>
+          <t>Guillaume_IV_de_Bavière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Famille et postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume IV épouse le 5 octobre 1522 à Munich la princesse Marie-Jacobée de Bade-Sponheim (1507-1580), fille du margrave Philippe Ier de Bade-Sponheim et de la princesse Élisabeth du Palatinat. Il a quatre enfants de cette union :
 Theodor (1526-1534)
